--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="C3:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1695,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>50700</v>
+        <v>50610</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1732,15 +1732,15 @@
         <v>38</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>50701</v>
+        <v>50611</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>50800</v>
+        <v>50620</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1769,15 +1769,15 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>50801</v>
+        <v>50621</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>50900</v>
+        <v>50630</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1810,11 +1810,11 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>50901</v>
+        <v>50631</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>50901</v>
+        <v>50631</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1847,11 +1847,11 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>50902</v>
+        <v>50632</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>50902</v>
+        <v>50632</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>50903</v>
+        <v>50633</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>50903</v>
+        <v>50633</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1921,11 +1921,11 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>50904</v>
+        <v>50634</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>50904</v>
+        <v>50634</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1958,11 +1958,11 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>50905</v>
+        <v>50635</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>50905</v>
+        <v>50635</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1995,11 +1995,11 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>50906</v>
+        <v>50636</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>50906</v>
+        <v>50636</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -2032,11 +2032,11 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>50907</v>
+        <v>50637</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>50907</v>
+        <v>50637</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>50908</v>
+        <v>50638</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>50908</v>
+        <v>50638</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>

--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -35,30 +38,15 @@
     <t>Type</t>
   </si>
   <si>
+    <t>RequireLevel</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>StartRate</t>
-  </si>
-  <si>
-    <t>EndRate</t>
-  </si>
-  <si>
-    <t>AttrValue</t>
-  </si>
-  <si>
-    <t>RiseAttr</t>
-  </si>
-  <si>
-    <t>RisePower</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
     <t>Des</t>
   </si>
   <si>
@@ -68,9 +56,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>铁矿</t>
   </si>
   <si>
@@ -201,6 +186,51 @@
   </si>
   <si>
     <t>减伤倍率</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>幸运石</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>白水晶</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>太阳石</t>
+  </si>
+  <si>
+    <t>减伤</t>
+  </si>
+  <si>
+    <t>泰坦石</t>
+  </si>
+  <si>
+    <t>蓝矿等级+1%</t>
+  </si>
+  <si>
+    <t>宝石之精</t>
+  </si>
+  <si>
+    <t>绿矿等级+1%</t>
+  </si>
+  <si>
+    <t>水晶之心</t>
+  </si>
+  <si>
+    <t>紫矿等级+1%</t>
+  </si>
+  <si>
+    <t>异石之心</t>
+  </si>
+  <si>
+    <t>红矿等级+1%</t>
   </si>
 </sst>
 </file>
@@ -213,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +261,12 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF05073B"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -703,142 +739,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1158,942 +1195,695 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M27"/>
+  <dimension ref="C1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
+    <row r="1" customHeight="1" spans="8:8">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="8:8">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G27" si="0">H6+1</f>
-        <v>10001</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:H27" si="1">H6+F7</f>
-        <v>20000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>20001</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10000</v>
-      </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>30001</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:13">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:8">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>40001</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>50001</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>50100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>50101</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>50200</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>50201</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>50300</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:8">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>50301</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>50400</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:8">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>50401</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>50500</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>50501</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>50600</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:13">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:8">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>50601</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>50610</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>50611</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>50620</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>50621</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>50630</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:13">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:8">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>50631</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>50631</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>100</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:8">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>50632</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>50632</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>100</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:8">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>50633</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>50633</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>100</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:8">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>50634</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>50634</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>100</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:8">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>50635</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>50635</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>100</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:8">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>50636</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>50636</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>100</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:8">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>50637</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>50637</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>100</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:13">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>15</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:8">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:8">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="1">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:8">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G30" s="1">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:8">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>50638</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>50638</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:8">
+      <c r="C32" s="1">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1">
+      <c r="E32" s="1">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>100</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>57</v>
+      <c r="H32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:8">
+      <c r="C33" s="1">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:8">
+      <c r="C34" s="1">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>40</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:8">
+      <c r="C35" s="1">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 F3:F5 C3:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -218,13 +218,13 @@
     <t>宝石之精</t>
   </si>
   <si>
-    <t>绿矿等级+1%</t>
+    <t>紫矿等级+1%</t>
   </si>
   <si>
     <t>水晶之心</t>
   </si>
   <si>
-    <t>紫矿等级+1%</t>
+    <t>橙矿等级+1%</t>
   </si>
   <si>
     <t>异石之心</t>
@@ -1197,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="C1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1735,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>53</v>
@@ -1755,7 +1755,7 @@
         <v>54</v>
       </c>
       <c r="G29" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>55</v>
@@ -1775,7 +1775,7 @@
         <v>56</v>
       </c>
       <c r="G30" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>57</v>
@@ -1795,7 +1795,7 @@
         <v>58</v>
       </c>
       <c r="G31" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>59</v>
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>61</v>
@@ -1835,7 +1835,7 @@
         <v>62</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>63</v>
@@ -1855,7 +1855,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>65</v>
@@ -1883,7 +1883,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 E4 E5 F3:F5 C3:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="C1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1575,7 +1575,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>38</v>
@@ -1595,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>40</v>
@@ -1635,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="G23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>44</v>
@@ -1655,7 +1655,7 @@
         <v>45</v>
       </c>
       <c r="G24" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>46</v>
@@ -1675,7 +1675,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>48</v>
@@ -1715,7 +1715,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>52</v>

--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="C1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1715,7 +1715,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>52</v>
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>61</v>
@@ -1835,7 +1835,7 @@
         <v>62</v>
       </c>
       <c r="G33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>63</v>
@@ -1855,7 +1855,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>65</v>
@@ -1875,7 +1875,7 @@
         <v>66</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>67</v>

--- a/Excel/MineConfig.xlsx
+++ b/Excel/MineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>RiseRate</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -188,28 +191,31 @@
     <t>减伤倍率</t>
   </si>
   <si>
+    <t>幸运石</t>
+  </si>
+  <si>
     <t>幸运</t>
   </si>
   <si>
-    <t>幸运石</t>
+    <t>白水晶</t>
   </si>
   <si>
     <t>增伤</t>
   </si>
   <si>
-    <t>白水晶</t>
+    <t>太阳石</t>
   </si>
   <si>
     <t>爆伤</t>
   </si>
   <si>
-    <t>太阳石</t>
+    <t>泰坦石</t>
   </si>
   <si>
     <t>减伤</t>
   </si>
   <si>
-    <t>泰坦石</t>
+    <t>矿石之精</t>
   </si>
   <si>
     <t>蓝矿等级+1%</t>
@@ -1195,33 +1201,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H35"/>
+  <dimension ref="C1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="8:8">
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="8:8">
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
+    <row r="1" customHeight="1" spans="9:9">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="9:9">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1240,8 +1246,11 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1260,28 +1269,34 @@
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1292,16 +1307,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>100000</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1312,16 +1330,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>100000</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1332,16 +1353,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>100000</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1352,16 +1376,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
         <v>100000</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:8">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1372,16 +1399,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
         <v>100000</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1392,16 +1422,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>1000</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H11" s="1">
+        <v>500</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1412,16 +1445,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="H12" s="1">
+        <v>500</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1432,16 +1468,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1">
         <v>1000</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:8">
+      <c r="H13" s="1">
+        <v>500</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1452,16 +1491,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1">
         <v>1000</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:8">
+      <c r="H14" s="1">
+        <v>500</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:9">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1472,16 +1514,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1">
         <v>1000</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:8">
+      <c r="H15" s="1">
+        <v>500</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:9">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1492,16 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
         <v>1000</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:8">
+      <c r="H16" s="1">
+        <v>500</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:9">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1512,16 +1560,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:8">
+      <c r="H17" s="1">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:9">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1532,16 +1583,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:8">
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:9">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1552,16 +1606,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:8">
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1572,16 +1629,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
         <v>20</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:8">
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1592,16 +1652,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:8">
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:9">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1612,16 +1675,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:8">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:9">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1632,16 +1698,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1">
-        <v>20</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:8">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:9">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1652,16 +1721,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
-        <v>20</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:8">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1672,16 +1744,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1">
-        <v>20</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:8">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:9">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1692,16 +1767,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:8">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:9">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1712,16 +1790,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:8">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1729,19 +1810,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1">
         <v>30</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:8">
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:9">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1749,19 +1833,22 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1">
         <v>30</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:8">
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:9">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1769,19 +1856,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>40</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="G30" s="1">
         <v>30</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:8">
+      <c r="H30" s="1">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:9">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1789,19 +1879,22 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:8">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:9">
       <c r="C32" s="1">
         <v>101</v>
       </c>
@@ -1809,19 +1902,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G32" s="1">
         <v>6</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:8">
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:9">
       <c r="C33" s="1">
         <v>102</v>
       </c>
@@ -1829,19 +1925,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:8">
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:9">
       <c r="C34" s="1">
         <v>103</v>
       </c>
@@ -1849,19 +1948,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1">
         <v>6</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:8">
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:9">
       <c r="C35" s="1">
         <v>104</v>
       </c>
@@ -1872,13 +1974,16 @@
         <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>67</v>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
